--- a/2-source/storage/app/public/course_export_template.xlsx
+++ b/2-source/storage/app/public/course_export_template.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
     <t>Người hướng dẫn</t>
   </si>
   <si>
-    <t>Tp. Hồ Chí Minh, ngày …… tháng 06 năm 2023</t>
+    <t>Tp. Hồ Chí Minh, ngày …… tháng 06 năm 2024</t>
   </si>
   <si>
     <t>TRƯỞNG KHOA</t>
@@ -93,7 +93,7 @@
     <t>Điện thoại: 02822158642; FAX: ……………;</t>
   </si>
   <si>
-    <t>Giảng viên hướng dẫn: Nguyễn Thị Hồng Mỹ; điện thoại : 0961935422, email: mynth@tdc.edu.vn</t>
+    <t>Giảng viên hướng dẫn: ............; điện thoại : ..................., email: .................</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M68"/>
+  <dimension ref="A2:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L7"/>
+      <selection activeCell="L58" sqref="L58:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2731,82 +2731,263 @@
       </c>
       <c r="M51" s="29"/>
     </row>
-    <row r="53" ht="16.8" spans="8:13">
-      <c r="H53" s="8" t="s">
+    <row r="52" ht="111" customHeight="1" spans="1:13">
+      <c r="A52" s="18">
+        <v>39</v>
+      </c>
+      <c r="B52" s="19">
+        <f>Sheet2!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="20">
+        <f>Sheet2!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="21">
+        <f>Sheet2!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
+        <f>Sheet2!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
+        <f>Sheet2!H52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="28">
+        <f>Sheet2!L52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="29"/>
+    </row>
+    <row r="53" ht="111" customHeight="1" spans="1:13">
+      <c r="A53" s="18">
+        <v>40</v>
+      </c>
+      <c r="B53" s="19">
+        <f>Sheet2!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="20">
+        <f>Sheet2!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="21">
+        <f>Sheet2!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
+        <f>Sheet2!G53</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
+        <f>Sheet2!H53</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="28">
+        <f>Sheet2!L53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="29"/>
+    </row>
+    <row r="54" ht="111" customHeight="1" spans="1:13">
+      <c r="A54" s="18">
+        <v>41</v>
+      </c>
+      <c r="B54" s="19">
+        <f>Sheet2!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="20">
+        <f>Sheet2!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="21">
+        <f>Sheet2!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
+        <f>Sheet2!G54</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f>Sheet2!H54</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="28">
+        <f>Sheet2!L54</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="29"/>
+    </row>
+    <row r="55" ht="111" customHeight="1" spans="1:13">
+      <c r="A55" s="18">
+        <v>42</v>
+      </c>
+      <c r="B55" s="19">
+        <f>Sheet2!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="20">
+        <f>Sheet2!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="21">
+        <f>Sheet2!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
+        <f>Sheet2!G55</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
+        <f>Sheet2!H55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="28">
+        <f>Sheet2!L55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="29"/>
+    </row>
+    <row r="56" ht="111" customHeight="1" spans="1:13">
+      <c r="A56" s="18">
+        <v>43</v>
+      </c>
+      <c r="B56" s="19">
+        <f>Sheet2!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="20">
+        <f>Sheet2!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="21">
+        <f>Sheet2!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <f>Sheet2!G56</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <f>Sheet2!H56</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="28">
+        <f>Sheet2!L56</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="29"/>
+    </row>
+    <row r="57" ht="111" customHeight="1" spans="1:13">
+      <c r="A57" s="18">
+        <v>44</v>
+      </c>
+      <c r="B57" s="19">
+        <f>Sheet2!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="20">
+        <f>Sheet2!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="21">
+        <f>Sheet2!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <f>Sheet2!G57</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <f>Sheet2!H57</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="28">
+        <f>Sheet2!L57</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="29"/>
+    </row>
+    <row r="58" ht="111" customHeight="1" spans="1:13">
+      <c r="A58" s="18">
+        <v>45</v>
+      </c>
+      <c r="B58" s="19">
+        <f>Sheet2!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="20">
+        <f>Sheet2!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="21">
+        <f>Sheet2!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
+        <f>Sheet2!G58</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <f>Sheet2!H58</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="28">
+        <f>Sheet2!L58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="29"/>
+    </row>
+    <row r="59" ht="16.8" spans="8:13">
+      <c r="H59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" customFormat="1" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" customFormat="1" spans="1:7">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" customFormat="1" ht="16.8" spans="1:13">
-      <c r="A56" s="24"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-    </row>
-    <row r="57" customFormat="1" spans="2:7">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:7">
-      <c r="A58" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" customFormat="1" spans="1:7">
-      <c r="A59" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" customFormat="1" spans="2:7">
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" customFormat="1" spans="1:7">
+      <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2815,9 +2996,7 @@
       <c r="G60" s="7"/>
     </row>
     <row r="61" customFormat="1" spans="1:7">
-      <c r="A61" s="26" t="s">
-        <v>17</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2825,18 +3004,24 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" customFormat="1" spans="2:7">
+    <row r="62" customFormat="1" ht="16.8" spans="1:13">
+      <c r="A62" s="24"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-    </row>
-    <row r="63" customFormat="1" spans="1:7">
-      <c r="A63" s="26" t="s">
-        <v>18</v>
-      </c>
+      <c r="H62" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+    </row>
+    <row r="63" customFormat="1" spans="2:7">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2844,7 +3029,10 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" customFormat="1" spans="2:7">
+    <row r="64" customFormat="1" spans="1:7">
+      <c r="A64" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2854,7 +3042,7 @@
     </row>
     <row r="65" customFormat="1" spans="1:7">
       <c r="A65" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2873,7 +3061,7 @@
     </row>
     <row r="67" customFormat="1" spans="1:7">
       <c r="A67" s="26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2882,8 +3070,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" customFormat="1" spans="1:7">
-      <c r="A68" s="7"/>
+    <row r="68" customFormat="1" spans="2:7">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2891,8 +3078,66 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
+    <row r="69" customFormat="1" spans="1:7">
+      <c r="A69" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" customFormat="1" spans="2:7">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" customFormat="1" spans="1:7">
+      <c r="A71" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" customFormat="1" spans="2:7">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" customFormat="1" spans="1:7">
+      <c r="A73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" customFormat="1" spans="1:7">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="148">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="A3:F3"/>
@@ -3017,8 +3262,29 @@
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="H62:M62"/>
     <mergeCell ref="B6:L7"/>
   </mergeCells>
   <pageMargins left="0.897222222222222" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
